--- a/temp/faq.xlsx
+++ b/temp/faq.xlsx
@@ -13,7 +13,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
-    <t>No.</t>
+    <t>#</t>
   </si>
   <si>
     <t>Title</t>
@@ -103,7 +103,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <color theme="1"/>
       <family val="2"/>
@@ -111,13 +111,24 @@
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <color rgb="FFFFFF"/>
+      <family val="2"/>
+      <sz val="13"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="07C"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -132,8 +143,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -474,32 +486,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:H10"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -513,13 +528,13 @@
       <c r="C3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="2">
         <v>41698.68990740741</v>
       </c>
       <c r="E3">
         <v>4</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="2">
         <v>41698.66082175926</v>
       </c>
       <c r="G3">
@@ -539,13 +554,13 @@
       <c r="C4" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="2">
         <v>41701.424525462964</v>
       </c>
       <c r="E4">
         <v>4</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="2">
         <v>41701.60790509259</v>
       </c>
       <c r="G4">
@@ -565,13 +580,13 @@
       <c r="C5" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="2">
         <v>41701.44216435185</v>
       </c>
       <c r="E5">
         <v>4</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="2">
         <v>41701.40049768519</v>
       </c>
       <c r="G5">
@@ -591,13 +606,13 @@
       <c r="C6" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="2">
         <v>41915.60722222222</v>
       </c>
       <c r="E6">
         <v>4</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="2">
         <v>41915.523888888885</v>
       </c>
       <c r="G6">
@@ -617,13 +632,13 @@
       <c r="C7" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="2">
         <v>41915.60767361111</v>
       </c>
       <c r="E7">
         <v>4</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="2">
         <v>41915.52434027778</v>
       </c>
       <c r="G7">
@@ -643,13 +658,13 @@
       <c r="C8" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="2">
         <v>41915.60802083333</v>
       </c>
       <c r="E8">
         <v>4</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="2">
         <v>41915.5246875</v>
       </c>
       <c r="G8">
@@ -669,13 +684,13 @@
       <c r="C9" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="2">
         <v>41915.60836805555</v>
       </c>
       <c r="E9">
         <v>4</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="2">
         <v>41915.525034722225</v>
       </c>
       <c r="G9">
@@ -695,13 +710,13 @@
       <c r="C10" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="2">
         <v>41915.608715277776</v>
       </c>
       <c r="E10">
         <v>4</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="2">
         <v>41915.52538194445</v>
       </c>
       <c r="G10">
@@ -713,6 +728,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="7" fitToHeight="5"/>
 </worksheet>
 </file>